--- a/biology/Zoologie/Cyrtocara_moorii/Cyrtocara_moorii.xlsx
+++ b/biology/Zoologie/Cyrtocara_moorii/Cyrtocara_moorii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtocara moorii ou parfois « Bossu du Malawi[1] » ou encore « haplo à bosse[1] » est une espèce de poissons de l'ordre des Cichliformes et de la famille des Cichlidae. C'est l'unique espèce de son genre Cyrtocara (monotypique). Il est endémique des lacs Malawi et Malombe en Afrique[3]. Cette espèce est communément dénommée différemment par plusieurs peuples de pécheurs autour du lac: « Utaka » et « Bamusi » en nyanja au Malawi « Bampuhedi » et « Chakhuta » en tonga au Malawi et « Mbuna-chiphungu » en tumbuka également au Malawi[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtocara moorii ou parfois « Bossu du Malawi » ou encore « haplo à bosse » est une espèce de poissons de l'ordre des Cichliformes et de la famille des Cichlidae. C'est l'unique espèce de son genre Cyrtocara (monotypique). Il est endémique des lacs Malawi et Malombe en Afrique. Cette espèce est communément dénommée différemment par plusieurs peuples de pécheurs autour du lac: « Utaka » et « Bamusi » en nyanja au Malawi « Bampuhedi » et « Chakhuta » en tonga au Malawi et « Mbuna-chiphungu » en tumbuka également au Malawi.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce possède un corps comprimé latéralement et assez haut. Une bosse caractéristique très prédominante sur le front est présente à l'âge adulte. Le mâle comme la femelle possède un fond de coloration bleu/argenté, qu’ils acquièrent quasi directement à la naissance.
 </t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des lacs Malawi et Malombe en Afrique. Contrairement à beaucoup d'autres espèce de Cichlidae du lac que l'on ne rencontre qu'à certains lieux de pêche précis du lac, Cyrtocara moorii se rencontre sur toute la superficie du lac[3]. Le lac Malawi fait partie des grands Lacs de la vallée du grand rift africain, qui traverse la partie orientale de l'Afrique du nord au sud. Certains de ces lacs sont parmi les plus profonds, les plus grands et les plus anciens du monde.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des lacs Malawi et Malombe en Afrique. Contrairement à beaucoup d'autres espèce de Cichlidae du lac que l'on ne rencontre qu'à certains lieux de pêche précis du lac, Cyrtocara moorii se rencontre sur toute la superficie du lac. Le lac Malawi fait partie des grands Lacs de la vallée du grand rift africain, qui traverse la partie orientale de l'Afrique du nord au sud. Certains de ces lacs sont parmi les plus profonds, les plus grands et les plus anciens du monde.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure adulte une taille maximale avoisinant les 20 cm[5], parfois un peu plus en aquarium pour les plus vieux spécimens. Selon Aquabase[6] environ 25 cm pour le mâle et 20 cm pour la femelle[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure adulte une taille maximale avoisinant les 20 cm, parfois un peu plus en aquarium pour les plus vieux spécimens. Selon Aquabase environ 25 cm pour le mâle et 20 cm pour la femelle.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Dimorphisme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Adulte cette espèce de cichlidae n'est pas toujours très simplement différentiable. En effet le mâle comme la femelle sont de couleur bleue. Cependant principalement en période de reproduction, on remarquera le mâle légèrement plus grand et de coloration plus soutenue ; la femelle moins dominante est plus terne. Le mâle possède également la terminaison des nageoires impaires plus effilées. Ce sont les mâles qui creusent de petits nids dans le sable où ils attirent les femelles. Parfois les professionnels retournent les poissons et comparent les orifices génitaux afin de déterminer les sexes. Chez les spécimens complètement adultes le mâle est bleu et caractérisé par la présence d'une "bosse" frontale, plus prononcée que la femelle. Cette dernière possède 3 tâches plus sombres sur le corps (plus ou moins visibles en fonction de l'état de stress).
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En aquarium Cyrtocara moorii se nourrit de tous types de nourritures sauf de vers genre ver de vase rouge. Il appréciera les nourritures traditionnelles conseillées, fraiches : artémias, krill, ou sèches : paillette et granulés de taille adaptée avec sa prise en gueule.
 </t>
@@ -666,11 +688,11 @@
           <t>Maintenance</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C. moorii est un « Utacca » qui se maintient sans difficulté avec tous les autres Cichlidae du lac Malawi. Des espèces comme celles des genres Sciaenochromis et/ou Labidochromis lui seront de bons compagnons. En bac spécifique un volume de 300 litres pour un couple ou un trio est le minimum conseillé. Le décor sera composé essentiellement de pierres, auxquelles on pourra ajouter quelques plantes robustes du genre Anubias ou Vallisneria (Vallisneria gigantea).
-Caractéristique physico-chimique
-Cette espèce vit dans son milieu dans une eau douce à un pH compris entre 7,2 et 8,8 ; un dH compris entre 10 et 18 à des profondeurs de 3 à 15 m. La température varie de 24 à 26 °C[5].
 </t>
         </is>
       </c>
@@ -696,12 +718,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Reproduction</t>
+          <t>Maintenance</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incubateur buccal maternel, le mâle défend un territoire. (selon l'IUCN moins farouchement qu'un certain nombre d'autres espèces[3]) Cyrtocara moorii est un cichlidé semblable à la plupart des autres cichlidae du lac Malawi quant à sa façon de se reproduire. Le mâle construit un nid dans le sable en forme de cuvette ou contre une pierre, qu'il défend farouchement contre tout intrus. Des observations montrent qu'il est possible (surtout en aquarium), de le voir se reproduire sur une simple pierre plate. Les œufs déposés par la femelle sont fertilisées avant et après la prise en bouche par cette dernière. Les œufs et larves sont incubés environt trois semaines avant le lâcher. Si le frai est prélevé pour un élevage, il sera nourri de préférence de nauplie d'artémias et de poudre et paillette traditionnelle pour jeunes Cichlidae.
+          <t>Caractéristique physico-chimique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans son milieu dans une eau douce à un pH compris entre 7,2 et 8,8 ; un dH compris entre 10 et 18 à des profondeurs de 3 à 15 m. La température varie de 24 à 26 °C.
 </t>
         </is>
       </c>
@@ -727,12 +755,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Statut IUCN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Union internationale pour la conservation de la nature (IUCN) place cette espèce en "Vulnérable" (VU) (autrefois, « Endémique au lac Malawi, distribué à grande échelle sans grandes menaces généralisées identifiées »[3]).
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incubateur buccal maternel, le mâle défend un territoire. (selon l'IUCN moins farouchement qu'un certain nombre d'autres espèces) Cyrtocara moorii est un cichlidé semblable à la plupart des autres cichlidae du lac Malawi quant à sa façon de se reproduire. Le mâle construit un nid dans le sable en forme de cuvette ou contre une pierre, qu'il défend farouchement contre tout intrus. Des observations montrent qu'il est possible (surtout en aquarium), de le voir se reproduire sur une simple pierre plate. Les œufs déposés par la femelle sont fertilisées avant et après la prise en bouche par cette dernière. Les œufs et larves sont incubés environt trois semaines avant le lâcher. Si le frai est prélevé pour un élevage, il sera nourri de préférence de nauplie d'artémias et de poudre et paillette traditionnelle pour jeunes Cichlidae.
 </t>
         </is>
       </c>
@@ -758,10 +788,45 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Statut IUCN</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Union internationale pour la conservation de la nature (IUCN) place cette espèce en "Vulnérable" (VU) (autrefois, « Endémique au lac Malawi, distribué à grande échelle sans grandes menaces généralisées identifiées »).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cyrtocara_moorii</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cyrtocara_moorii</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Croisement, hybridation, sélection</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est impératif de maintenir cette espèce et le genre Cyrtocara seul ou en compagnie d'autres espèces, d'autres genres, mais de provenance similaire (lac Malawi), afin d'éviter toute facilité de croisement. Le commerce aquariophile a également vu apparaître un grand nombre de spécimens provenant d'Asie et d'Europe de l'est notamment et aux couleurs des plus farfelues ou albinos, à cause de la sélection, hybridation et autres procédés chimiques de laboratoires.
 </t>
